--- a/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik december 2024.xlsx
+++ b/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik december 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -847,7 +847,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -865,22 +865,13 @@
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>2% filler,21% containsSingleMass,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t>2% filler,27% containsProduct,13% containsProductNr,27% containsAmount,27% QuantityHeader,</t>
   </si>
   <si>
-    <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -915,7 +906,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,7 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -1004,22 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7499D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF066D90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1056,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1134,14 +1110,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1152,29 +1120,35 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="25" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="24" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4340,7 +4314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0846F9-048C-4E7D-9B24-04083AF2AAC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA21E7BD-113F-4849-955B-EBD0B0614F65}">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -4745,9 +4719,6 @@
       <c r="G18" s="28">
         <v>1437.8</v>
       </c>
-      <c r="H18" s="42" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="30" t="s">
@@ -4772,9 +4743,6 @@
       <c r="G19" s="28">
         <v>2089.62</v>
       </c>
-      <c r="H19" s="44" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="30" t="s">
@@ -4799,9 +4767,6 @@
       <c r="G20" s="28">
         <v>35.72</v>
       </c>
-      <c r="H20" s="50" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="30" t="s">
@@ -6418,7 +6383,7 @@
       <c r="B88" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="35" t="s">
         <v>191</v>
       </c>
       <c r="D88" s="25">
@@ -6442,7 +6407,7 @@
       <c r="B89" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="39" t="s">
+      <c r="C89" s="35" t="s">
         <v>193</v>
       </c>
       <c r="D89" s="25">
@@ -6466,7 +6431,7 @@
       <c r="B90" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="25">
@@ -6490,7 +6455,7 @@
       <c r="B91" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="33" t="s">
         <v>197</v>
       </c>
       <c r="D91" s="25">
@@ -6514,7 +6479,7 @@
       <c r="B92" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="33" t="s">
         <v>199</v>
       </c>
       <c r="D92" s="25">
@@ -6538,7 +6503,7 @@
       <c r="B93" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="33" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="25">
@@ -6682,10 +6647,10 @@
       <c r="B99" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="D99" s="45">
+      <c r="D99" s="41">
         <v>0.015</v>
       </c>
       <c r="E99" s="27">
@@ -6703,7 +6668,7 @@
       <c r="A100" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B100" s="46">
+      <c r="B100" s="42">
         <v>3040</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -6711,11 +6676,11 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="47">
+      <c r="F100" s="43">
         <f>SUM(F7:F99)</f>
         <v>2366</v>
       </c>
-      <c r="G100" s="48">
+      <c r="G100" s="44">
         <f>SUM(G7:G99)</f>
         <v>105492.67999999996</v>
       </c>
@@ -7117,7 +7082,7 @@
       <c r="B118" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="37" t="s">
         <v>252</v>
       </c>
       <c r="D118" s="25">
@@ -7162,7 +7127,7 @@
       <c r="A120" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B120" s="46">
+      <c r="B120" s="42">
         <v>3040</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -7170,11 +7135,11 @@
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="47">
+      <c r="F120" s="43">
         <f>SUM(F103:F119)</f>
         <v>1534</v>
       </c>
-      <c r="G120" s="48">
+      <c r="G120" s="44">
         <f>SUM(G103:G119)</f>
         <v>48980.97</v>
       </c>
@@ -7190,11 +7155,11 @@
         <v>257</v>
       </c>
       <c r="E122" s="4"/>
-      <c r="F122" s="47">
+      <c r="F122" s="43">
         <f>+F100+F120</f>
         <v>3900</v>
       </c>
-      <c r="G122" s="48">
+      <c r="G122" s="44">
         <f>+G100+G120</f>
         <v>154473.64999999997</v>
       </c>
@@ -7213,11 +7178,11 @@
       <c r="E123" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F123" s="51">
+      <c r="F123" s="45">
         <f>+F120/F122</f>
         <v>0.3933333333333333</v>
       </c>
-      <c r="G123" s="51">
+      <c r="G123" s="45">
         <f>+G120/G122</f>
         <v>0.31708301059760036</v>
       </c>
@@ -7229,7 +7194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE77E3D-5D25-4C33-9FAF-5C4E0AB58819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF16B0C-DEA0-4AD2-B94A-35DB58ED0A58}">
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
@@ -7277,20 +7242,20 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>279</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>282</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -7300,19 +7265,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="54">
         <v>7</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="56">
         <f>+D7*E7</f>
         <v>7</v>
       </c>
@@ -7324,19 +7289,19 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="54">
         <v>8</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="56">
         <f ref="F8:F71" t="shared" si="0">+D8*E8</f>
         <v>40</v>
       </c>
@@ -7348,19 +7313,19 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="54">
         <v>11</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="56">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -7372,19 +7337,19 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="54">
         <v>4</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7396,19 +7361,19 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="51" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="54">
         <v>48</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="56">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -7420,19 +7385,19 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="51" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="54">
         <v>24</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -7444,19 +7409,19 @@
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="51" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="54">
         <v>2</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7468,19 +7433,19 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="54">
         <v>2</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7492,19 +7457,19 @@
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="51" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="54">
         <v>30</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="56">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7516,19 +7481,19 @@
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="54">
         <v>4</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7540,19 +7505,19 @@
       <c r="A17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="51" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <v>23</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="56">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -7564,19 +7529,19 @@
       <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="58">
-        <v>5</v>
-      </c>
-      <c r="F18" s="59">
+      <c r="E18" s="54">
+        <v>5</v>
+      </c>
+      <c r="F18" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7588,19 +7553,19 @@
       <c r="A19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="54">
         <v>39</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="56">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -7612,19 +7577,19 @@
       <c r="A20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="58">
-        <v>1</v>
-      </c>
-      <c r="F20" s="59">
+      <c r="E20" s="54">
+        <v>1</v>
+      </c>
+      <c r="F20" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7636,19 +7601,19 @@
       <c r="A21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="51" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="54">
         <v>2</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7660,19 +7625,19 @@
       <c r="A22" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="54">
         <v>3</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7684,19 +7649,19 @@
       <c r="A23" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>2</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7708,19 +7673,19 @@
       <c r="A24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="51" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="58">
-        <v>1</v>
-      </c>
-      <c r="F24" s="59">
+      <c r="E24" s="54">
+        <v>1</v>
+      </c>
+      <c r="F24" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7732,19 +7697,19 @@
       <c r="A25" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="51" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="54">
         <v>2</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7756,19 +7721,19 @@
       <c r="A26" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="51" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="54">
         <v>4</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7780,19 +7745,19 @@
       <c r="A27" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="51" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="54">
         <v>4</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7804,19 +7769,19 @@
       <c r="A28" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="51" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="54">
         <v>4</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7828,19 +7793,19 @@
       <c r="A29" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="51" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="58">
-        <v>1</v>
-      </c>
-      <c r="F29" s="59">
+      <c r="E29" s="54">
+        <v>1</v>
+      </c>
+      <c r="F29" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7852,19 +7817,19 @@
       <c r="A30" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="51" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="54">
         <v>19</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="56">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -7876,19 +7841,19 @@
       <c r="A31" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="51" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="54">
         <v>14</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="56">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -7900,19 +7865,19 @@
       <c r="A32" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="54">
         <v>12</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="56">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -7924,19 +7889,19 @@
       <c r="A33" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="51" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="54">
         <v>34</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="56">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
@@ -7948,19 +7913,19 @@
       <c r="A34" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="51" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="54">
         <v>2</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7972,19 +7937,19 @@
       <c r="A35" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="51" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="54">
         <v>2</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7996,19 +7961,19 @@
       <c r="A36" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="51" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="54">
         <v>4</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -8020,19 +7985,19 @@
       <c r="A37" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="51" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="54">
         <v>15</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8044,19 +8009,19 @@
       <c r="A38" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="54">
         <v>3</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8068,19 +8033,19 @@
       <c r="A39" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
-      <c r="E39" s="58">
+      <c r="E39" s="54">
         <v>3</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -8092,19 +8057,19 @@
       <c r="A40" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="51" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
       </c>
-      <c r="E40" s="58">
+      <c r="E40" s="54">
         <v>2</v>
       </c>
-      <c r="F40" s="59">
+      <c r="F40" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8116,19 +8081,19 @@
       <c r="A41" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="51" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="54">
         <v>12</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="56">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -8140,19 +8105,19 @@
       <c r="A42" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="51" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="54">
         <v>9</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="56">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -8164,19 +8129,19 @@
       <c r="A43" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="51" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E43" s="54">
         <v>6</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8188,19 +8153,19 @@
       <c r="A44" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D44" s="5">
         <v>5</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="54">
         <v>6</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="56">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8212,19 +8177,19 @@
       <c r="A45" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="51" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="54">
         <v>2</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8236,19 +8201,19 @@
       <c r="A46" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="51" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="5">
         <v>5</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="54">
         <v>6</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="56">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8260,19 +8225,19 @@
       <c r="A47" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="51" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="54">
         <v>20</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -8284,19 +8249,19 @@
       <c r="A48" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="51" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="5">
         <v>5</v>
       </c>
-      <c r="E48" s="58">
-        <v>1</v>
-      </c>
-      <c r="F48" s="59">
+      <c r="E48" s="54">
+        <v>1</v>
+      </c>
+      <c r="F48" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8308,19 +8273,19 @@
       <c r="A49" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="51" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="54">
         <v>4</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8332,19 +8297,19 @@
       <c r="A50" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="51" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="5">
         <v>5</v>
       </c>
-      <c r="E50" s="58">
-        <v>1</v>
-      </c>
-      <c r="F50" s="59">
+      <c r="E50" s="54">
+        <v>1</v>
+      </c>
+      <c r="F50" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8356,19 +8321,19 @@
       <c r="A51" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="51" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
-      <c r="E51" s="58">
-        <v>1</v>
-      </c>
-      <c r="F51" s="59">
+      <c r="E51" s="54">
+        <v>1</v>
+      </c>
+      <c r="F51" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8380,19 +8345,19 @@
       <c r="A52" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="51" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="54">
         <v>65</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="56">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -8404,19 +8369,19 @@
       <c r="A53" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="5">
         <v>5</v>
       </c>
-      <c r="E53" s="58">
-        <v>1</v>
-      </c>
-      <c r="F53" s="59">
+      <c r="E53" s="54">
+        <v>1</v>
+      </c>
+      <c r="F53" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8428,19 +8393,19 @@
       <c r="A54" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="51" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="54">
         <v>25</v>
       </c>
-      <c r="F54" s="59">
+      <c r="F54" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8452,19 +8417,19 @@
       <c r="A55" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="51" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="54">
         <v>6</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="56">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8476,19 +8441,19 @@
       <c r="A56" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E56" s="54">
         <v>4</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F56" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8500,19 +8465,19 @@
       <c r="A57" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="51" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="54">
         <v>6</v>
       </c>
-      <c r="F57" s="59">
+      <c r="F57" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8524,19 +8489,19 @@
       <c r="A58" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="51" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="E58" s="58">
-        <v>5</v>
-      </c>
-      <c r="F58" s="59">
+      <c r="E58" s="54">
+        <v>5</v>
+      </c>
+      <c r="F58" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8548,19 +8513,19 @@
       <c r="A59" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="51" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
       </c>
-      <c r="E59" s="58">
+      <c r="E59" s="54">
         <v>6</v>
       </c>
-      <c r="F59" s="59">
+      <c r="F59" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8572,19 +8537,19 @@
       <c r="A60" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
-      <c r="E60" s="58">
+      <c r="E60" s="54">
         <v>53</v>
       </c>
-      <c r="F60" s="59">
+      <c r="F60" s="56">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -8596,19 +8561,19 @@
       <c r="A61" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="51" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="5">
         <v>5</v>
       </c>
-      <c r="E61" s="58">
+      <c r="E61" s="54">
         <v>2</v>
       </c>
-      <c r="F61" s="59">
+      <c r="F61" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8620,19 +8585,19 @@
       <c r="A62" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="51" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="54">
         <v>23</v>
       </c>
-      <c r="F62" s="59">
+      <c r="F62" s="56">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -8644,19 +8609,19 @@
       <c r="A63" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="51" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="5">
         <v>1</v>
       </c>
-      <c r="E63" s="58">
-        <v>5</v>
-      </c>
-      <c r="F63" s="59">
+      <c r="E63" s="54">
+        <v>5</v>
+      </c>
+      <c r="F63" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8668,19 +8633,19 @@
       <c r="A64" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="51" t="s">
         <v>138</v>
       </c>
       <c r="D64" s="5">
         <v>1</v>
       </c>
-      <c r="E64" s="58">
+      <c r="E64" s="54">
         <v>27</v>
       </c>
-      <c r="F64" s="59">
+      <c r="F64" s="56">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -8692,19 +8657,19 @@
       <c r="A65" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="51" t="s">
         <v>140</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
       </c>
-      <c r="E65" s="58">
+      <c r="E65" s="54">
         <v>6</v>
       </c>
-      <c r="F65" s="59">
+      <c r="F65" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8716,19 +8681,19 @@
       <c r="A66" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="51" t="s">
         <v>142</v>
       </c>
       <c r="D66" s="5">
         <v>5</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="54">
         <v>12</v>
       </c>
-      <c r="F66" s="59">
+      <c r="F66" s="56">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -8740,19 +8705,19 @@
       <c r="A67" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="51" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="5">
         <v>1</v>
       </c>
-      <c r="E67" s="58">
+      <c r="E67" s="54">
         <v>35</v>
       </c>
-      <c r="F67" s="59">
+      <c r="F67" s="56">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -8764,19 +8729,19 @@
       <c r="A68" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="5">
         <v>5</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="54">
         <v>11</v>
       </c>
-      <c r="F68" s="59">
+      <c r="F68" s="56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -8788,19 +8753,19 @@
       <c r="A69" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="51" t="s">
         <v>148</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
       </c>
-      <c r="E69" s="58">
+      <c r="E69" s="54">
         <v>3</v>
       </c>
-      <c r="F69" s="59">
+      <c r="F69" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -8812,19 +8777,19 @@
       <c r="A70" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="51" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="5">
         <v>5</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="54">
         <v>13</v>
       </c>
-      <c r="F70" s="59">
+      <c r="F70" s="56">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -8836,19 +8801,19 @@
       <c r="A71" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="51" t="s">
         <v>153</v>
       </c>
       <c r="D71" s="5">
         <v>1</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E71" s="54">
         <v>6</v>
       </c>
-      <c r="F71" s="59">
+      <c r="F71" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8860,19 +8825,19 @@
       <c r="A72" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="51" t="s">
         <v>155</v>
       </c>
       <c r="D72" s="5">
         <v>1</v>
       </c>
-      <c r="E72" s="58">
+      <c r="E72" s="54">
         <v>38</v>
       </c>
-      <c r="F72" s="59">
+      <c r="F72" s="56">
         <f ref="F72:F99" t="shared" si="1">+D72*E72</f>
         <v>38</v>
       </c>
@@ -8884,19 +8849,19 @@
       <c r="A73" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="51" t="s">
         <v>157</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E73" s="54">
         <v>9</v>
       </c>
-      <c r="F73" s="59">
+      <c r="F73" s="56">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -8908,19 +8873,19 @@
       <c r="A74" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="51" t="s">
         <v>159</v>
       </c>
       <c r="D74" s="5">
         <v>5</v>
       </c>
-      <c r="E74" s="58">
+      <c r="E74" s="54">
         <v>3</v>
       </c>
-      <c r="F74" s="59">
+      <c r="F74" s="56">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8932,19 +8897,19 @@
       <c r="A75" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="51" t="s">
         <v>161</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
       </c>
-      <c r="E75" s="58">
+      <c r="E75" s="54">
         <v>2</v>
       </c>
-      <c r="F75" s="59">
+      <c r="F75" s="56">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8956,19 +8921,19 @@
       <c r="A76" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="51" t="s">
         <v>163</v>
       </c>
       <c r="D76" s="5">
         <v>1</v>
       </c>
-      <c r="E76" s="58">
+      <c r="E76" s="54">
         <v>4</v>
       </c>
-      <c r="F76" s="59">
+      <c r="F76" s="56">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8980,19 +8945,19 @@
       <c r="A77" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="51" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
-      <c r="E77" s="58">
+      <c r="E77" s="54">
         <v>9</v>
       </c>
-      <c r="F77" s="59">
+      <c r="F77" s="56">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -9004,19 +8969,19 @@
       <c r="A78" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="51" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="5">
         <v>5</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="54">
         <v>3</v>
       </c>
-      <c r="F78" s="59">
+      <c r="F78" s="56">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -9028,19 +8993,19 @@
       <c r="A79" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="B79" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="51" t="s">
         <v>169</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
       </c>
-      <c r="E79" s="58">
-        <v>5</v>
-      </c>
-      <c r="F79" s="59">
+      <c r="E79" s="54">
+        <v>5</v>
+      </c>
+      <c r="F79" s="56">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9052,19 +9017,19 @@
       <c r="A80" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C80" s="56" t="s">
+      <c r="C80" s="51" t="s">
         <v>172</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
       </c>
-      <c r="E80" s="58">
+      <c r="E80" s="54">
         <v>70</v>
       </c>
-      <c r="F80" s="59">
+      <c r="F80" s="56">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -9076,19 +9041,19 @@
       <c r="A81" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="51" t="s">
         <v>174</v>
       </c>
       <c r="D81" s="5">
         <v>5</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E81" s="54">
         <v>10</v>
       </c>
-      <c r="F81" s="59">
+      <c r="F81" s="56">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -9100,19 +9065,19 @@
       <c r="A82" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="51" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
       </c>
-      <c r="E82" s="58">
+      <c r="E82" s="54">
         <v>3</v>
       </c>
-      <c r="F82" s="59">
+      <c r="F82" s="56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9124,19 +9089,19 @@
       <c r="A83" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="51" t="s">
         <v>179</v>
       </c>
       <c r="D83" s="5">
         <v>5</v>
       </c>
-      <c r="E83" s="58">
+      <c r="E83" s="54">
         <v>4</v>
       </c>
-      <c r="F83" s="59">
+      <c r="F83" s="56">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -9148,19 +9113,19 @@
       <c r="A84" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="54" t="s">
+      <c r="B84" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C84" s="51" t="s">
         <v>181</v>
       </c>
       <c r="D84" s="5">
         <v>1</v>
       </c>
-      <c r="E84" s="58">
+      <c r="E84" s="54">
         <v>34</v>
       </c>
-      <c r="F84" s="59">
+      <c r="F84" s="56">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -9172,19 +9137,19 @@
       <c r="A85" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="56" t="s">
+      <c r="C85" s="51" t="s">
         <v>183</v>
       </c>
       <c r="D85" s="5">
         <v>5</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="54">
         <v>9</v>
       </c>
-      <c r="F85" s="59">
+      <c r="F85" s="56">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -9196,19 +9161,19 @@
       <c r="A86" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="56" t="s">
+      <c r="C86" s="51" t="s">
         <v>186</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E86" s="54">
         <v>9</v>
       </c>
-      <c r="F86" s="59">
+      <c r="F86" s="56">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -9220,19 +9185,19 @@
       <c r="A87" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="51" t="s">
         <v>188</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="54">
         <v>92</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="56">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -9244,19 +9209,19 @@
       <c r="A88" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="51" t="s">
         <v>191</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="54">
         <v>6</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="56">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9268,19 +9233,19 @@
       <c r="A89" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="51" t="s">
         <v>193</v>
       </c>
       <c r="D89" s="5">
         <v>5</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="54">
         <v>3</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="56">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -9292,19 +9257,19 @@
       <c r="A90" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="51" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="54">
         <v>3</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9316,19 +9281,19 @@
       <c r="A91" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="51" t="s">
         <v>197</v>
       </c>
       <c r="D91" s="5">
         <v>5</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="54">
         <v>2</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="56">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -9340,19 +9305,19 @@
       <c r="A92" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="51" t="s">
         <v>199</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="54">
         <v>26</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="56">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -9364,19 +9329,19 @@
       <c r="A93" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="51" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="5">
         <v>5</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="54">
         <v>23</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="56">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -9388,19 +9353,19 @@
       <c r="A94" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="54">
         <v>4</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="56">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9412,19 +9377,19 @@
       <c r="A95" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D95" s="5">
         <v>1</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="54">
         <v>6</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="56">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9436,19 +9401,19 @@
       <c r="A96" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D96" s="5">
         <v>5</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="54">
         <v>18</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="56">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -9460,19 +9425,19 @@
       <c r="A97" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="51" t="s">
         <v>211</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="54">
         <v>6</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F97" s="56">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9484,19 +9449,19 @@
       <c r="A98" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="51" t="s">
         <v>213</v>
       </c>
       <c r="D98" s="5">
         <v>5</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="54">
         <v>10</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F98" s="56">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -9508,19 +9473,19 @@
       <c r="A99" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="51" t="s">
         <v>216</v>
       </c>
       <c r="D99" s="5">
         <v>0.015</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="54">
         <v>8800</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="56">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -9532,15 +9497,15 @@
       <c r="A100" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="49">
         <v>3040</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="52" t="s">
         <v>218</v>
       </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="3">
+      <c r="E100" s="55"/>
+      <c r="F100" s="57">
         <f>SUM(F7:F99)</f>
         <v>2366</v>
       </c>
@@ -9560,20 +9525,20 @@
       <c r="A102" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="F102" s="53" t="s">
         <v>279</v>
-      </c>
-      <c r="C102" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="D102" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="F102" s="57" t="s">
-        <v>282</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>10</v>
@@ -9583,19 +9548,19 @@
       <c r="A103" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="51" t="s">
         <v>221</v>
       </c>
       <c r="D103" s="5">
         <v>1</v>
       </c>
-      <c r="E103" s="58">
+      <c r="E103" s="54">
         <v>98</v>
       </c>
-      <c r="F103" s="59">
+      <c r="F103" s="56">
         <f>+D103*E103</f>
         <v>98</v>
       </c>
@@ -9607,19 +9572,19 @@
       <c r="A104" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B104" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="51" t="s">
         <v>223</v>
       </c>
       <c r="D104" s="5">
         <v>5</v>
       </c>
-      <c r="E104" s="58">
+      <c r="E104" s="54">
         <v>39</v>
       </c>
-      <c r="F104" s="59">
+      <c r="F104" s="56">
         <f ref="F104:F119" t="shared" si="2">+D104*E104</f>
         <v>195</v>
       </c>
@@ -9631,19 +9596,19 @@
       <c r="A105" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="51" t="s">
         <v>225</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
       </c>
-      <c r="E105" s="58">
+      <c r="E105" s="54">
         <v>15</v>
       </c>
-      <c r="F105" s="59">
+      <c r="F105" s="56">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -9655,19 +9620,19 @@
       <c r="A106" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B106" s="54" t="s">
+      <c r="B106" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C106" s="56" t="s">
+      <c r="C106" s="51" t="s">
         <v>227</v>
       </c>
       <c r="D106" s="5">
         <v>1</v>
       </c>
-      <c r="E106" s="58">
+      <c r="E106" s="54">
         <v>159</v>
       </c>
-      <c r="F106" s="59">
+      <c r="F106" s="56">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
@@ -9679,19 +9644,19 @@
       <c r="A107" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="51" t="s">
         <v>229</v>
       </c>
       <c r="D107" s="5">
         <v>5</v>
       </c>
-      <c r="E107" s="58">
+      <c r="E107" s="54">
         <v>145</v>
       </c>
-      <c r="F107" s="59">
+      <c r="F107" s="56">
         <f t="shared" si="2"/>
         <v>725</v>
       </c>
@@ -9703,19 +9668,19 @@
       <c r="A108" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C108" s="56" t="s">
+      <c r="C108" s="51" t="s">
         <v>231</v>
       </c>
       <c r="D108" s="5">
         <v>1</v>
       </c>
-      <c r="E108" s="58">
+      <c r="E108" s="54">
         <v>8</v>
       </c>
-      <c r="F108" s="59">
+      <c r="F108" s="56">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -9727,19 +9692,19 @@
       <c r="A109" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B109" s="54" t="s">
+      <c r="B109" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="51" t="s">
         <v>233</v>
       </c>
       <c r="D109" s="5">
         <v>1</v>
       </c>
-      <c r="E109" s="58">
+      <c r="E109" s="54">
         <v>4</v>
       </c>
-      <c r="F109" s="59">
+      <c r="F109" s="56">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9751,19 +9716,19 @@
       <c r="A110" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="C110" s="56" t="s">
+      <c r="C110" s="51" t="s">
         <v>235</v>
       </c>
       <c r="D110" s="5">
         <v>5</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="54">
         <v>10</v>
       </c>
-      <c r="F110" s="59">
+      <c r="F110" s="56">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -9775,19 +9740,19 @@
       <c r="A111" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="51" t="s">
         <v>237</v>
       </c>
       <c r="D111" s="5">
         <v>1</v>
       </c>
-      <c r="E111" s="58">
+      <c r="E111" s="54">
         <v>18</v>
       </c>
-      <c r="F111" s="59">
+      <c r="F111" s="56">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -9799,19 +9764,19 @@
       <c r="A112" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="C112" s="56" t="s">
+      <c r="C112" s="51" t="s">
         <v>239</v>
       </c>
       <c r="D112" s="5">
         <v>5</v>
       </c>
-      <c r="E112" s="58">
-        <v>1</v>
-      </c>
-      <c r="F112" s="59">
+      <c r="E112" s="54">
+        <v>1</v>
+      </c>
+      <c r="F112" s="56">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -9823,19 +9788,19 @@
       <c r="A113" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="C113" s="56" t="s">
+      <c r="C113" s="51" t="s">
         <v>241</v>
       </c>
       <c r="D113" s="5">
         <v>5</v>
       </c>
-      <c r="E113" s="58">
+      <c r="E113" s="54">
         <v>4</v>
       </c>
-      <c r="F113" s="59">
+      <c r="F113" s="56">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -9847,19 +9812,19 @@
       <c r="A114" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B114" s="54" t="s">
+      <c r="B114" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="51" t="s">
         <v>243</v>
       </c>
       <c r="D114" s="5">
         <v>1</v>
       </c>
-      <c r="E114" s="58">
+      <c r="E114" s="54">
         <v>8</v>
       </c>
-      <c r="F114" s="59">
+      <c r="F114" s="56">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -9871,19 +9836,19 @@
       <c r="A115" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="C115" s="56" t="s">
+      <c r="C115" s="51" t="s">
         <v>245</v>
       </c>
       <c r="D115" s="5">
         <v>5</v>
       </c>
-      <c r="E115" s="58">
+      <c r="E115" s="54">
         <v>18</v>
       </c>
-      <c r="F115" s="59">
+      <c r="F115" s="56">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -9895,19 +9860,19 @@
       <c r="A116" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="C116" s="56" t="s">
+      <c r="C116" s="51" t="s">
         <v>247</v>
       </c>
       <c r="D116" s="5">
         <v>1</v>
       </c>
-      <c r="E116" s="58">
-        <v>1</v>
-      </c>
-      <c r="F116" s="59">
+      <c r="E116" s="54">
+        <v>1</v>
+      </c>
+      <c r="F116" s="56">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -9919,19 +9884,19 @@
       <c r="A117" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="56" t="s">
+      <c r="C117" s="51" t="s">
         <v>249</v>
       </c>
       <c r="D117" s="5">
         <v>5</v>
       </c>
-      <c r="E117" s="58">
+      <c r="E117" s="54">
         <v>21</v>
       </c>
-      <c r="F117" s="59">
+      <c r="F117" s="56">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
@@ -9943,19 +9908,19 @@
       <c r="A118" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="51" t="s">
         <v>252</v>
       </c>
       <c r="D118" s="5">
         <v>1</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E118" s="54">
         <v>8</v>
       </c>
-      <c r="F118" s="8">
+      <c r="F118" s="56">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -9967,19 +9932,19 @@
       <c r="A119" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="51" t="s">
         <v>255</v>
       </c>
       <c r="D119" s="5">
         <v>1</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="54">
         <v>25</v>
       </c>
-      <c r="F119" s="8">
+      <c r="F119" s="56">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -9991,15 +9956,15 @@
       <c r="A120" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="49">
         <v>3040</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="52" t="s">
         <v>218</v>
       </c>
       <c r="D120" s="7"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="3">
+      <c r="E120" s="55"/>
+      <c r="F120" s="57">
         <f>SUM(F103:F119)</f>
         <v>1534</v>
       </c>
